--- a/MainTop/10.07.2025 новые/p1.xlsx
+++ b/MainTop/10.07.2025 новые/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Роза с бутоном акварель</t>
+          <t>Термонаклейка Медуза в очках и с змеями</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Рука жест рок металл</t>
+          <t>Термонаклейка Роза с бутоном акварель</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -998,7 +998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка в золотых трещинах</t>
+          <t>Термонаклейка Рука жест рок металл</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1018,7 +1018,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Не буди лихо пока тихо</t>
+          <t>Термонаклейка Девушка в золотых трещинах</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Треснувшая античная скульптура</t>
+          <t>Термонаклейка Не буди лихо пока тихо</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Яркий цветок акварель</t>
+          <t>Термонаклейка Треснувшая античная скульптура</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1078,7 +1078,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Три фламинго у воды лево</t>
+          <t>Термонаклейка Яркий цветок акварель</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка Египетская кошка в золоте</t>
+          <t>Термонаклейка Три фламинго у воды лево</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1118,7 +1118,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрная кошка и луна</t>
+          <t>Термонаклейка Египетская кошка в золоте</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Итальянская набережная</t>
+          <t>Термонаклейка Чёрная кошка и луна</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1158,18 +1158,38 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Термонаклейка Итальянская набережная</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.07.2025 новые</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Термонаклейка Уточка с полотенцем</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>10.07.2025 новые</t>
         </is>
